--- a/AAII_Financials/Yearly/HLDCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLDCY_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3264700</v>
+        <v>3258300</v>
       </c>
       <c r="E8" s="3">
-        <v>3006000</v>
+        <v>3000200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1933000</v>
+        <v>1929300</v>
       </c>
       <c r="E9" s="3">
-        <v>1452500</v>
+        <v>1449600</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1331600</v>
+        <v>1329000</v>
       </c>
       <c r="E10" s="3">
-        <v>1553600</v>
+        <v>1550500</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2343800</v>
+        <v>2339200</v>
       </c>
       <c r="E17" s="3">
-        <v>1474100</v>
+        <v>1471200</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>920800</v>
+        <v>919000</v>
       </c>
       <c r="E18" s="3">
-        <v>1532000</v>
+        <v>1529000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>597800</v>
+        <v>596700</v>
       </c>
       <c r="E20" s="3">
-        <v>509500</v>
+        <v>508500</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1587600</v>
+        <v>1584600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>141300</v>
+        <v>141000</v>
       </c>
       <c r="E22" s="3">
-        <v>76700</v>
+        <v>76500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1377400</v>
+        <v>1374700</v>
       </c>
       <c r="E23" s="3">
-        <v>1964800</v>
+        <v>1961000</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1099,10 +1099,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>163200</v>
+        <v>162800</v>
       </c>
       <c r="E24" s="3">
-        <v>257800</v>
+        <v>257300</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1214200</v>
+        <v>1211800</v>
       </c>
       <c r="E26" s="3">
-        <v>1707000</v>
+        <v>1703700</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1180500</v>
+        <v>1178200</v>
       </c>
       <c r="E27" s="3">
-        <v>1685900</v>
+        <v>1682600</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-597800</v>
+        <v>-596700</v>
       </c>
       <c r="E32" s="3">
-        <v>-509500</v>
+        <v>-508500</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1180500</v>
+        <v>1178200</v>
       </c>
       <c r="E33" s="3">
-        <v>1685900</v>
+        <v>1682600</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1180500</v>
+        <v>1178200</v>
       </c>
       <c r="E35" s="3">
-        <v>1685900</v>
+        <v>1682600</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1717100</v>
+        <v>1713700</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1746400</v>
+        <v>1742900</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12426700</v>
+        <v>12402300</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51200</v>
+        <v>51100</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15941400</v>
+        <v>15910200</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17534600</v>
+        <v>17500300</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33920300</v>
+        <v>33853900</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1697,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>46500</v>
+        <v>46400</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>248500</v>
+        <v>248000</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67691300</v>
+        <v>67558800</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1097000</v>
+        <v>1094900</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4258800</v>
+        <v>4250500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2370900</v>
+        <v>2366300</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7726800</v>
+        <v>7711600</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14548500</v>
+        <v>14520100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1315900</v>
+        <v>1313300</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2128,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25789400</v>
+        <v>25738900</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35386500</v>
+        <v>35317300</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41901900</v>
+        <v>41819900</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1180500</v>
+        <v>1178200</v>
       </c>
       <c r="E81" s="3">
-        <v>1685900</v>
+        <v>1682600</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,7 +2510,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>69000</v>
+        <v>68900</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2672,7 +2672,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1422200</v>
+        <v>1419400</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2712,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-407100</v>
+        <v>-406300</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2793,7 +2793,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1551900</v>
+        <v>1548900</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1113500</v>
+        <v>-1111300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2722100</v>
+        <v>-2716800</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-52900</v>
+        <v>-52800</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -2995,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>199100</v>
+        <v>198700</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/HLDCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HLDCY_YR_FIN.xlsx
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3258300</v>
+        <v>3275400</v>
       </c>
       <c r="E8" s="3">
-        <v>3000200</v>
+        <v>3015900</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1929300</v>
+        <v>1939400</v>
       </c>
       <c r="E9" s="3">
-        <v>1449600</v>
+        <v>1457300</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1329000</v>
+        <v>1336000</v>
       </c>
       <c r="E10" s="3">
-        <v>1550500</v>
+        <v>1558700</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2339200</v>
+        <v>2351500</v>
       </c>
       <c r="E17" s="3">
-        <v>1471200</v>
+        <v>1478900</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>919000</v>
+        <v>923900</v>
       </c>
       <c r="E18" s="3">
-        <v>1529000</v>
+        <v>1537000</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -991,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>596700</v>
+        <v>599800</v>
       </c>
       <c r="E20" s="3">
-        <v>508500</v>
+        <v>511200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1584600</v>
+        <v>1592800</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>141000</v>
+        <v>141800</v>
       </c>
       <c r="E22" s="3">
-        <v>76500</v>
+        <v>76900</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1374700</v>
+        <v>1381900</v>
       </c>
       <c r="E23" s="3">
-        <v>1961000</v>
+        <v>1971300</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1099,10 +1099,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>162800</v>
+        <v>163700</v>
       </c>
       <c r="E24" s="3">
-        <v>257300</v>
+        <v>258700</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1211800</v>
+        <v>1218200</v>
       </c>
       <c r="E26" s="3">
-        <v>1703700</v>
+        <v>1712600</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1178200</v>
+        <v>1184300</v>
       </c>
       <c r="E27" s="3">
-        <v>1682600</v>
+        <v>1691500</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-596700</v>
+        <v>-599800</v>
       </c>
       <c r="E32" s="3">
-        <v>-508500</v>
+        <v>-511200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1178200</v>
+        <v>1184300</v>
       </c>
       <c r="E33" s="3">
-        <v>1682600</v>
+        <v>1691500</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1178200</v>
+        <v>1184300</v>
       </c>
       <c r="E35" s="3">
-        <v>1682600</v>
+        <v>1691500</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1713700</v>
+        <v>1722700</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1742900</v>
+        <v>1752100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12402300</v>
+        <v>12467500</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51100</v>
+        <v>51400</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15910200</v>
+        <v>15993800</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17500300</v>
+        <v>17592300</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33853900</v>
+        <v>34031800</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1697,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>46400</v>
+        <v>46700</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>248000</v>
+        <v>249300</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67558800</v>
+        <v>67913800</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1094900</v>
+        <v>1100600</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4250500</v>
+        <v>4272800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2366300</v>
+        <v>2378700</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7711600</v>
+        <v>7752200</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14520100</v>
+        <v>14596400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1313300</v>
+        <v>1320200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2128,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25738900</v>
+        <v>25874100</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35317300</v>
+        <v>35502900</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41819900</v>
+        <v>42039700</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1178200</v>
+        <v>1184300</v>
       </c>
       <c r="E81" s="3">
-        <v>1682600</v>
+        <v>1691500</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,7 +2510,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>68900</v>
+        <v>69200</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>3</v>
@@ -2672,7 +2672,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1419400</v>
+        <v>1426900</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -2712,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-406300</v>
+        <v>-408400</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2793,7 +2793,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1548900</v>
+        <v>1557000</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1111300</v>
+        <v>-1117200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2716800</v>
+        <v>-2731100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -2968,7 +2968,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-52800</v>
+        <v>-53100</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -2995,7 +2995,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>198700</v>
+        <v>199700</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>
